--- a/biology/Médecine/Charles_H._Crane/Charles_H._Crane.xlsx
+++ b/biology/Médecine/Charles_H._Crane/Charles_H._Crane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Henry Crane, B.A. M.A. M.D. (19 juillet 1825 - 10 octobre 1883) est un médecin américain. Il fut le 13e Surgeon General of the United States Army (chef des services de santé de l'US Army), de 1882 à 1883.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils du colonel Ichabod B. Crane (en), il obtient son B. A. à Yale College en 1844, avant d'aller à la Harvard Medical School où il reçoit son M. D. en 1847[1]
-Il rejoint l'armée en venant du Massachusetts le 14 février 1848[2]. Il était l'un des médecins qui assista Abraham Lincoln lors de la mort de celui-ci[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils du colonel Ichabod B. Crane (en), il obtient son B. A. à Yale College en 1844, avant d'aller à la Harvard Medical School où il reçoit son M. D. en 1847
+Il rejoint l'armée en venant du Massachusetts le 14 février 1848. Il était l'un des médecins qui assista Abraham Lincoln lors de la mort de celui-ci.
 </t>
         </is>
       </c>
